--- a/finacial documents/new pl.xlsx
+++ b/finacial documents/new pl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjolalekan/Documents/interdisciplinary/interdisciplinary/finacial documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A5EC349D-018D-304E-A0BF-5F430C28F55C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EB297306-15FD-0D46-B03D-C288BB13C01F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400"/>
   </bookViews>
